--- a/APM files/138591414/138591414 IMPORT 2 VID creation copy.xlsx
+++ b/APM files/138591414/138591414 IMPORT 2 VID creation copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/134802983/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138591414/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2077707-C025-6342-B317-80D3D97BBCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6092FC63-E79F-4847-A606-D11CA41E2FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>Expedia ID</t>
   </si>
@@ -104,80 +104,131 @@
     <t>Merchant</t>
   </si>
   <si>
-    <t>LodgingOther</t>
-  </si>
-  <si>
     <t>C-Corporation</t>
   </si>
   <si>
     <t>Registered</t>
   </si>
   <si>
-    <t>Dream Inn - 2BR in Downtown | Burj Khalifa View</t>
-  </si>
-  <si>
-    <t>Dream Inn - Signature Villa - Private Beach &amp; Pool</t>
-  </si>
-  <si>
-    <t>Dream Inn - Sea View Apartments</t>
-  </si>
-  <si>
-    <t>Dream Inn - Beachfront 1BR: Free Beach Access</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>12/13/2024</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>Dream Inn Holiday Homes Rental LLC</t>
-  </si>
-  <si>
-    <t>Boulevard Downtown central</t>
-  </si>
-  <si>
-    <t>Downtown Dubai</t>
-  </si>
-  <si>
-    <t>Palm Jumeirah O frond Villa</t>
-  </si>
-  <si>
-    <t>Palm Jumeirah</t>
-  </si>
-  <si>
-    <t>Palm Jumeirah Tiara Tanzanite</t>
-  </si>
-  <si>
-    <t>Sunrise Bay, Dubai Marina</t>
-  </si>
-  <si>
-    <t>Emaar Beach front</t>
-  </si>
-  <si>
-    <t>111529614</t>
-  </si>
-  <si>
-    <t>111529616</t>
-  </si>
-  <si>
-    <t>111529617</t>
-  </si>
-  <si>
-    <t>111529618</t>
+    <t>115150254</t>
+  </si>
+  <si>
+    <t>115150257</t>
+  </si>
+  <si>
+    <t>115150258</t>
+  </si>
+  <si>
+    <t>115150260</t>
+  </si>
+  <si>
+    <t>115150261</t>
+  </si>
+  <si>
+    <t>115150262</t>
+  </si>
+  <si>
+    <t>Barsala at A/62 Apartments</t>
+  </si>
+  <si>
+    <t>Riverbend Apartments by Barsala</t>
+  </si>
+  <si>
+    <t>Barsala at La Tierna</t>
+  </si>
+  <si>
+    <t>Barsala at Timberwalk at Mandarin</t>
+  </si>
+  <si>
+    <t>Lake Castleton Apartments by Barsala</t>
+  </si>
+  <si>
+    <t>Barsala at The Cottages at Oak Grove Dairy</t>
+  </si>
+  <si>
+    <t>6111 Allisonville Rd</t>
+  </si>
+  <si>
+    <t>8850 River Bend Pkwy</t>
+  </si>
+  <si>
+    <t>15950 Chase Hill Blvd</t>
+  </si>
+  <si>
+    <t>10263 Whispering Forest Dr</t>
+  </si>
+  <si>
+    <t>7601 Carlton Arms Dr.</t>
+  </si>
+  <si>
+    <t>7 Dairy Crk Rd SW</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Huntsville</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>46220</t>
+  </si>
+  <si>
+    <t>46250</t>
+  </si>
+  <si>
+    <t>78256</t>
+  </si>
+  <si>
+    <t>32257</t>
+  </si>
+  <si>
+    <t>46256</t>
+  </si>
+  <si>
+    <t>35803</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>04/21/2025</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Barsala Inc</t>
+  </si>
+  <si>
+    <t>47-4700143</t>
+  </si>
+  <si>
+    <t>Barsala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,34 +236,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -220,66 +253,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -322,43 +307,13 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="2"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -680,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81CCFE-720E-40D7-A104-13F9DD318DB9}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -778,240 +733,327 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>29</v>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
       </c>
       <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>23</v>
-      </c>
-      <c r="R2" s="2">
-        <v>100039938400003</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>29</v>
+      <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
       </c>
       <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>23</v>
-      </c>
-      <c r="R3" s="2">
-        <v>100039938400003</v>
-      </c>
-      <c r="S3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>29</v>
+      <c r="J4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
       </c>
       <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>23</v>
-      </c>
-      <c r="R4" s="2">
-        <v>100039938400003</v>
-      </c>
-      <c r="S4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="L5" t="s">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="S7" t="s">
         <v>23</v>
-      </c>
-      <c r="R5" s="2">
-        <v>100039938400003</v>
-      </c>
-      <c r="S5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="5" priority="30">
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K7">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 C2:C4 E2:F5 H2:H5 K2:K5">
-    <cfRule type="expression" dxfId="4" priority="28">
+  <conditionalFormatting sqref="L2:M11">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="3" priority="27">
-      <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R5">
-    <cfRule type="expression" dxfId="2" priority="24">
-      <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="25">
-      <formula>SEARCH("No",#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Currency Code" error="Please use a three letter currency code_x000a_Examples:_x000a_- EUR_x000a_- AUS_x000a_- GBP" sqref="K2:K5 H2:H5" xr:uid="{08075D02-0D4A-284E-AA1A-97B2651BF654}">
-      <formula1>1</formula1>
-      <formula2>3</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/APM files/138591414/138591414 IMPORT 2 VID creation copy.xlsx
+++ b/APM files/138591414/138591414 IMPORT 2 VID creation copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138591414/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6092FC63-E79F-4847-A606-D11CA41E2FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7BBD39-1EE2-6A4B-80CA-1A2FA3AC3E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17640" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/APM files/138591414/138591414 IMPORT 2 VID creation copy.xlsx
+++ b/APM files/138591414/138591414 IMPORT 2 VID creation copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138591414/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7BBD39-1EE2-6A4B-80CA-1A2FA3AC3E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C467FFC9-ABE6-0245-88A5-F2D610800B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17640" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
